--- a/data/paper_data_24.xlsx
+++ b/data/paper_data_24.xlsx
@@ -59,6 +59,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,12 +83,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +148,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,7 +175,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -653,13 +656,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
